--- a/inst/extdata/dat.xlsx
+++ b/inst/extdata/dat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\amstar2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB81F4F-BAC0-4C1E-81A1-36B661F1E345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D9F87C-1FCF-4C34-A0F6-2F83FF93965A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADD68484-A8D6-4B22-B597-52FBDA7E3FD8}"/>
   </bookViews>
@@ -1869,8 +1869,8 @@
   <dimension ref="A1:AD496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R216" sqref="R216"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2566,7 +2566,7 @@
         <v>300</v>
       </c>
       <c r="Q13" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">

--- a/inst/extdata/dat.xlsx
+++ b/inst/extdata/dat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\amstar2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D9F87C-1FCF-4C34-A0F6-2F83FF93965A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72578EA1-4E22-4166-979F-8D5C7BDEE50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADD68484-A8D6-4B22-B597-52FBDA7E3FD8}"/>
   </bookViews>
@@ -1869,8 +1869,8 @@
   <dimension ref="A1:AD496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q13" sqref="Q13"/>
+      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P451" sqref="P451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3465,7 +3465,7 @@
         <v>299</v>
       </c>
       <c r="L30" s="29" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="M30" t="s">
         <v>299</v>
@@ -3571,7 +3571,7 @@
         <v>299</v>
       </c>
       <c r="L32" s="29" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="M32" t="s">
         <v>299</v>
@@ -3624,7 +3624,7 @@
         <v>299</v>
       </c>
       <c r="L33" s="29" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s">
         <v>299</v>
@@ -3730,7 +3730,7 @@
         <v>299</v>
       </c>
       <c r="L35" s="29" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s">
         <v>299</v>
@@ -3836,7 +3836,7 @@
         <v>299</v>
       </c>
       <c r="L37" s="29" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="M37" t="s">
         <v>299</v>
@@ -3995,7 +3995,7 @@
         <v>299</v>
       </c>
       <c r="L40" s="29" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="M40" t="s">
         <v>299</v>
@@ -4101,7 +4101,7 @@
         <v>299</v>
       </c>
       <c r="L42" s="29" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="M42" t="s">
         <v>300</v>
@@ -4260,7 +4260,7 @@
         <v>299</v>
       </c>
       <c r="L45" s="29" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="M45" t="s">
         <v>299</v>
@@ -25354,7 +25354,7 @@
         <v>300</v>
       </c>
       <c r="L443" s="29" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="M443" s="15" t="s">
         <v>299</v>
@@ -25407,7 +25407,7 @@
         <v>300</v>
       </c>
       <c r="L444" s="29" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="M444" s="15" t="s">
         <v>299</v>
@@ -25516,7 +25516,7 @@
         <v>300</v>
       </c>
       <c r="M446" s="15" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="N446" s="29" t="s">
         <v>300</v>
@@ -25595,7 +25595,7 @@
         <v>299</v>
       </c>
       <c r="D448" s="15" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="E448" s="29" t="s">
         <v>317</v>
@@ -25648,7 +25648,7 @@
         <v>299</v>
       </c>
       <c r="D449" s="15" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="E449" s="29" t="s">
         <v>317</v>
@@ -25701,7 +25701,7 @@
         <v>299</v>
       </c>
       <c r="D450" s="15" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="E450" s="29" t="s">
         <v>317</v>
@@ -25754,7 +25754,7 @@
         <v>299</v>
       </c>
       <c r="D451" s="15" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="E451" s="29" t="s">
         <v>300</v>
@@ -25790,7 +25790,7 @@
         <v>300</v>
       </c>
       <c r="P451" s="29" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="Q451" s="15" t="s">
         <v>300</v>

--- a/inst/extdata/dat.xlsx
+++ b/inst/extdata/dat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\amstar2\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72578EA1-4E22-4166-979F-8D5C7BDEE50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0184F6F-7525-462C-B5C7-3658837AEA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADD68484-A8D6-4B22-B597-52FBDA7E3FD8}"/>
   </bookViews>
@@ -997,9 +997,6 @@
     <t>Karimian</t>
   </si>
   <si>
-    <t>Not Applicable</t>
-  </si>
-  <si>
     <t>SadeghAli-Hassan-Sayegh</t>
   </si>
   <si>
@@ -1166,6 +1163,9 @@
   </si>
   <si>
     <t>review</t>
+  </si>
+  <si>
+    <t>No MA</t>
   </si>
 </sst>
 </file>
@@ -1869,8 +1869,8 @@
   <dimension ref="A1:AD496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P451" sqref="P451"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1882,7 +1882,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>301</v>
@@ -8447,10 +8447,10 @@
         <v>299</v>
       </c>
       <c r="L124" s="29" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="M124" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="N124" s="29" t="s">
         <v>300</v>
@@ -8459,7 +8459,7 @@
         <v>300</v>
       </c>
       <c r="P124" s="29" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="Q124" t="s">
         <v>300</v>
@@ -18378,7 +18378,7 @@
     </row>
     <row r="312" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B312" s="44" t="s">
         <v>300</v>
@@ -18431,7 +18431,7 @@
     </row>
     <row r="313" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B313" s="46" t="s">
         <v>300</v>
@@ -18484,7 +18484,7 @@
     </row>
     <row r="314" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B314" s="46" t="s">
         <v>300</v>
@@ -18590,7 +18590,7 @@
     </row>
     <row r="316" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B316" s="46" t="s">
         <v>300</v>
@@ -18643,7 +18643,7 @@
     </row>
     <row r="317" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B317" s="46" t="s">
         <v>300</v>
@@ -18749,7 +18749,7 @@
     </row>
     <row r="319" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B319" s="46" t="s">
         <v>300</v>
@@ -18802,7 +18802,7 @@
     </row>
     <row r="320" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B320" s="46" t="s">
         <v>300</v>
@@ -18961,7 +18961,7 @@
     </row>
     <row r="323" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B323" s="46" t="s">
         <v>300</v>
@@ -19014,7 +19014,7 @@
     </row>
     <row r="324" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B324" s="46" t="s">
         <v>300</v>
@@ -19067,7 +19067,7 @@
     </row>
     <row r="325" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B325" s="46" t="s">
         <v>300</v>
@@ -19226,7 +19226,7 @@
     </row>
     <row r="328" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B328" s="42" t="s">
         <v>300</v>
@@ -19259,10 +19259,10 @@
         <v>299</v>
       </c>
       <c r="L328" s="43" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="M328" s="42" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="N328" s="43" t="s">
         <v>299</v>
@@ -19271,7 +19271,7 @@
         <v>299</v>
       </c>
       <c r="P328" s="43" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="Q328" s="42" t="s">
         <v>300</v>
@@ -19279,7 +19279,7 @@
     </row>
     <row r="329" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B329" s="46" t="s">
         <v>300</v>
@@ -19332,7 +19332,7 @@
     </row>
     <row r="330" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B330" s="46" t="s">
         <v>300</v>
@@ -19385,7 +19385,7 @@
     </row>
     <row r="331" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B331" s="42" t="s">
         <v>300</v>
@@ -19438,7 +19438,7 @@
     </row>
     <row r="332" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B332" s="46" t="s">
         <v>300</v>
@@ -19736,10 +19736,10 @@
         <v>300</v>
       </c>
       <c r="L337" s="36" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="M337" s="12" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="N337" s="36" t="s">
         <v>299</v>
@@ -23976,10 +23976,10 @@
         <v>299</v>
       </c>
       <c r="L417" s="48" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="M417" s="12" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="N417" s="48" t="s">
         <v>299</v>
@@ -23988,7 +23988,7 @@
         <v>299</v>
       </c>
       <c r="P417" s="48" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="Q417" s="12" t="s">
         <v>300</v>
@@ -24029,10 +24029,10 @@
         <v>299</v>
       </c>
       <c r="L418" s="48" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="M418" s="12" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="N418" s="48" t="s">
         <v>299</v>
@@ -24041,7 +24041,7 @@
         <v>299</v>
       </c>
       <c r="P418" s="48" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="Q418" s="12" t="s">
         <v>300</v>
@@ -24082,10 +24082,10 @@
         <v>299</v>
       </c>
       <c r="L419" s="48" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="M419" s="12" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="N419" s="48" t="s">
         <v>300</v>
@@ -24094,7 +24094,7 @@
         <v>300</v>
       </c>
       <c r="P419" s="48" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="Q419" s="12" t="s">
         <v>300</v>
@@ -24135,10 +24135,10 @@
         <v>299</v>
       </c>
       <c r="L420" s="48" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="M420" s="12" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="N420" s="48" t="s">
         <v>299</v>
@@ -24147,7 +24147,7 @@
         <v>299</v>
       </c>
       <c r="P420" s="48" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="Q420" s="12" t="s">
         <v>300</v>
@@ -24188,10 +24188,10 @@
         <v>299</v>
       </c>
       <c r="L421" s="48" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="M421" s="12" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="N421" s="48" t="s">
         <v>299</v>
@@ -24200,7 +24200,7 @@
         <v>299</v>
       </c>
       <c r="P421" s="48" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="Q421" s="12" t="s">
         <v>300</v>
@@ -24241,10 +24241,10 @@
         <v>299</v>
       </c>
       <c r="L422" s="48" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="M422" s="12" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="N422" s="48" t="s">
         <v>299</v>
@@ -24253,7 +24253,7 @@
         <v>299</v>
       </c>
       <c r="P422" s="48" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="Q422" s="12" t="s">
         <v>300</v>
@@ -24294,10 +24294,10 @@
         <v>299</v>
       </c>
       <c r="L423" s="48" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="M423" s="12" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="N423" s="48" t="s">
         <v>299</v>
@@ -24306,7 +24306,7 @@
         <v>299</v>
       </c>
       <c r="P423" s="48" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="Q423" s="12" t="s">
         <v>300</v>
@@ -24791,7 +24791,7 @@
     </row>
     <row r="433" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B433" s="15" t="s">
         <v>300</v>
@@ -24897,7 +24897,7 @@
     </row>
     <row r="435" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B435" s="15" t="s">
         <v>300</v>
@@ -24930,10 +24930,10 @@
         <v>299</v>
       </c>
       <c r="L435" s="39" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="M435" s="15" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="N435" s="39" t="s">
         <v>300</v>
@@ -24942,7 +24942,7 @@
         <v>300</v>
       </c>
       <c r="P435" s="39" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="Q435" s="15" t="s">
         <v>299</v>
@@ -24950,7 +24950,7 @@
     </row>
     <row r="436" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A436" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B436" s="15" t="s">
         <v>300</v>
@@ -25003,7 +25003,7 @@
     </row>
     <row r="437" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B437" s="15" t="s">
         <v>300</v>
@@ -25109,7 +25109,7 @@
     </row>
     <row r="439" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B439" s="15" t="s">
         <v>300</v>
@@ -25851,7 +25851,7 @@
     </row>
     <row r="453" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A453" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B453" s="8" t="s">
         <v>299</v>
@@ -25957,7 +25957,7 @@
     </row>
     <row r="455" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A455" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B455" s="15" t="s">
         <v>300</v>
@@ -26010,7 +26010,7 @@
     </row>
     <row r="456" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B456" s="15" t="s">
         <v>299</v>
@@ -26063,7 +26063,7 @@
     </row>
     <row r="457" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A457" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B457" s="15" t="s">
         <v>300</v>
@@ -26116,7 +26116,7 @@
     </row>
     <row r="458" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B458" s="15" t="s">
         <v>299</v>
@@ -26169,7 +26169,7 @@
     </row>
     <row r="459" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A459" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B459" s="15" t="s">
         <v>300</v>
@@ -26222,7 +26222,7 @@
     </row>
     <row r="460" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A460" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B460" s="15" t="s">
         <v>300</v>
@@ -26275,7 +26275,7 @@
     </row>
     <row r="461" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A461" s="52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B461" s="59" t="s">
         <v>300</v>
@@ -26381,7 +26381,7 @@
     </row>
     <row r="463" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A463" s="53" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B463" s="54" t="s">
         <v>300</v>
@@ -26434,7 +26434,7 @@
     </row>
     <row r="464" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A464" s="53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B464" s="54" t="s">
         <v>300</v>
@@ -26487,7 +26487,7 @@
     </row>
     <row r="465" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A465" s="53" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B465" s="54" t="s">
         <v>300</v>
@@ -26540,7 +26540,7 @@
     </row>
     <row r="466" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A466" s="53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B466" s="54" t="s">
         <v>300</v>
@@ -26593,7 +26593,7 @@
     </row>
     <row r="467" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A467" s="53" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B467" s="54" t="s">
         <v>300</v>
@@ -26646,7 +26646,7 @@
     </row>
     <row r="468" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A468" s="53" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B468" s="54" t="s">
         <v>300</v>
@@ -26699,7 +26699,7 @@
     </row>
     <row r="469" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A469" s="53" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B469" s="54" t="s">
         <v>300</v>
@@ -26752,7 +26752,7 @@
     </row>
     <row r="470" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A470" s="53" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B470" s="54" t="s">
         <v>300</v>
@@ -26858,7 +26858,7 @@
     </row>
     <row r="472" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A472" s="53" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B472" s="54" t="s">
         <v>300</v>
@@ -26964,7 +26964,7 @@
     </row>
     <row r="474" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A474" s="53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B474" s="54" t="s">
         <v>300</v>
@@ -27017,7 +27017,7 @@
     </row>
     <row r="475" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A475" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B475" s="44" t="s">
         <v>300</v>
@@ -27070,7 +27070,7 @@
     </row>
     <row r="476" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A476" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B476" s="46" t="s">
         <v>300</v>
@@ -27123,7 +27123,7 @@
     </row>
     <row r="477" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A477" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B477" s="46" t="s">
         <v>300</v>
@@ -27176,7 +27176,7 @@
     </row>
     <row r="478" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A478" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B478" s="46" t="s">
         <v>300</v>
@@ -27229,7 +27229,7 @@
     </row>
     <row r="479" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A479" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B479" s="46" t="s">
         <v>300</v>
@@ -27282,7 +27282,7 @@
     </row>
     <row r="480" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A480" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B480" s="46" t="s">
         <v>300</v>
@@ -27335,7 +27335,7 @@
     </row>
     <row r="481" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A481" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B481" s="46" t="s">
         <v>300</v>
@@ -27388,7 +27388,7 @@
     </row>
     <row r="482" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A482" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B482" s="46" t="s">
         <v>300</v>
@@ -27441,7 +27441,7 @@
     </row>
     <row r="483" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A483" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B483" s="46" t="s">
         <v>300</v>
@@ -27494,7 +27494,7 @@
     </row>
     <row r="484" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A484" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B484" s="46" t="s">
         <v>300</v>
@@ -27547,7 +27547,7 @@
     </row>
     <row r="485" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A485" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B485" s="4" t="s">
         <v>300</v>
@@ -27653,7 +27653,7 @@
     </row>
     <row r="487" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A487" s="46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B487" s="46" t="s">
         <v>300</v>
@@ -27706,7 +27706,7 @@
     </row>
     <row r="488" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A488" s="46" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B488" s="46" t="s">
         <v>300</v>
@@ -27812,7 +27812,7 @@
     </row>
     <row r="490" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A490" s="46" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B490" s="46" t="s">
         <v>300</v>
@@ -27865,7 +27865,7 @@
     </row>
     <row r="491" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A491" s="46" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B491" s="46" t="s">
         <v>300</v>
@@ -28077,7 +28077,7 @@
     </row>
     <row r="495" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A495" s="46" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B495" s="46" t="s">
         <v>300</v>
@@ -28130,7 +28130,7 @@
     </row>
     <row r="496" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A496" s="46" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B496" s="46" t="s">
         <v>300</v>
@@ -28182,9 +28182,18 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:Q1048576" xr:uid="{8704CEAD-115E-4A9A-AFE8-36D3D38BE4C4}">
-      <formula1>"Yes, Partial Yes, No, Not Applicable"</formula1>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576" xr:uid="{8704CEAD-115E-4A9A-AFE8-36D3D38BE4C4}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576 D1:D1048576 F1:F1048576 G1:G1048576 K1:K1048576 N1:N1048576 O1:O1048576" xr:uid="{7A535B0E-DFC9-43D5-BD3C-7ABF21991B5A}">
+      <formula1>"Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576 E1:E1048576 H1:H1048576 I1:I1048576 J1:J1048576" xr:uid="{2DA458E9-4E44-424C-A247-2C94141738CF}">
+      <formula1>"Yes, Partial Yes, No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576 M1:M1048576 P1:P1048576" xr:uid="{04B49660-F0C0-4120-96B0-F4BC357A8718}">
+      <formula1>"Yes, No, No MA"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/dat.xlsx
+++ b/inst/extdata/dat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\amstar2\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0184F6F-7525-462C-B5C7-3658837AEA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5F3DD4-C4EA-4FB9-803D-A04D43C924D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ADD68484-A8D6-4B22-B597-52FBDA7E3FD8}"/>
   </bookViews>
@@ -1869,8 +1869,8 @@
   <dimension ref="A1:AD496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:Q1048576"/>
+      <pane ySplit="1" topLeftCell="A472" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P337" sqref="P337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19748,7 +19748,7 @@
         <v>299</v>
       </c>
       <c r="P337" s="36" t="s">
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="Q337" s="12" t="s">
         <v>300</v>
@@ -28182,11 +28182,8 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576" xr:uid="{8704CEAD-115E-4A9A-AFE8-36D3D38BE4C4}">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576 D1:D1048576 F1:F1048576 G1:G1048576 K1:K1048576 N1:N1048576 O1:O1048576" xr:uid="{7A535B0E-DFC9-43D5-BD3C-7ABF21991B5A}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576 B1:B1048576 D1:D1048576 F1:G1048576 K1:K1048576 N1:O1048576" xr:uid="{8704CEAD-115E-4A9A-AFE8-36D3D38BE4C4}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576 E1:E1048576 H1:H1048576 I1:I1048576 J1:J1048576" xr:uid="{2DA458E9-4E44-424C-A247-2C94141738CF}">
